--- a/9/lap/9_lap_SS.xlsx
+++ b/9/lap/9_lap_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA313C3-6F0B-3449-98A0-7CC1EA30CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507F81E-50AE-4145-B258-83B6A54DC929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <sheet name="9_l_l30" sheetId="6" r:id="rId6"/>
     <sheet name="9_l_l40" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>sheet_name</t>
   </si>
@@ -88,11 +99,18 @@
     <t>lap</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>9_l_l25</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -151,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -263,10 +282,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>まとめ!$B$2:$B$6</c:f>
+              <c:f>まとめ!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -277,9 +296,12 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -287,10 +309,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>まとめ!$C$2:$C$6</c:f>
+              <c:f>まとめ!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>23.895714285714291</c:v>
                 </c:pt>
@@ -301,9 +323,12 @@
                   <c:v>33.994999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35.255571428571429</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>36.262714285714281</c:v>
                 </c:pt>
               </c:numCache>
@@ -1790,10 +1815,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>まとめ!$B$2:$B$6</c:f>
+              <c:f>まとめ!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1804,9 +1829,12 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1814,24 +1842,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>まとめ!$D$2:$D$6</c:f>
+              <c:f>まとめ!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2439.0766753246749</c:v>
+                  <c:v>2.4390766753246749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2566.278199134199</c:v>
+                  <c:v>2.566278199134199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2673.2097316017321</c:v>
+                  <c:v>2.673209731601732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2772.661904761906</c:v>
+                  <c:v>2.723285021645022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2872.1805714285711</c:v>
+                  <c:v>2.7726619047619061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8721805714285709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1968,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6939,13 +6970,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6975,13 +7006,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7645,10 +7676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7677,8 +7708,8 @@
       <c r="C2">
         <v>23.895714285714291</v>
       </c>
-      <c r="D2">
-        <v>2439.0766753246749</v>
+      <c r="D2" s="2">
+        <v>2.4390766753246749</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7691,8 +7722,8 @@
       <c r="C3">
         <v>30.805428571428571</v>
       </c>
-      <c r="D3">
-        <v>2566.278199134199</v>
+      <c r="D3" s="2">
+        <v>2.566278199134199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7705,37 +7736,54 @@
       <c r="C4">
         <v>33.994999999999997</v>
       </c>
-      <c r="D4">
-        <v>2673.2097316017321</v>
+      <c r="D4" s="2">
+        <v>2.673209731601732</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>34.941571428571429</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.723285021645022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>35.255571428571429</v>
       </c>
-      <c r="D5">
-        <v>2772.661904761906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D6" s="2">
+        <v>2.7726619047619061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>36.262714285714281</v>
       </c>
-      <c r="D6">
-        <v>2872.1805714285711</v>
-      </c>
+      <c r="D7" s="2">
+        <v>2.8721805714285709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/9/lap/9_lap_SS.xlsx
+++ b/9/lap/9_lap_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE024DA-9DCE-A441-8418-C79CE50B3C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA4438-F948-CE41-89B2-FD4540EB65CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>sheet_name</t>
   </si>
@@ -696,7 +696,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -723,7 +722,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l10'!$C$2:$C$10</c:f>
+              <c:f>'9_l_l0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -759,36 +758,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l10'!$D$2:$D$10</c:f>
+              <c:f>'9_l_l0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.64156999999999997</c:v>
+                  <c:v>0.60976857142857144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2831399999999999</c:v>
+                  <c:v>1.2195385714285709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.924714285714286</c:v>
+                  <c:v>1.8293142857142859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5662857142857138</c:v>
+                  <c:v>2.4390714285714288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2078571428571432</c:v>
+                  <c:v>3.0488428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8494285714285712</c:v>
+                  <c:v>3.658614285714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4909857142857144</c:v>
+                  <c:v>4.2683857142857136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1325571428571424</c:v>
+                  <c:v>4.8781571428571429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7741285714285722</c:v>
+                  <c:v>5.4879285714285713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,7 +795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6250-894D-AF1D-8DC1ADF3CAC2}"/>
+              <c16:uniqueId val="{00000000-14A2-5349-855D-F4664D698D1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -829,7 +828,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -863,7 +861,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -921,7 +918,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en"/>
-              <a:t>9_l_l20</a:t>
+              <a:t>9_l_l10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -947,10 +944,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l20'!$C$2:$C$105</c:f>
+              <c:f>'9_l_l10'!$C$2:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1255,12 +1252,6 @@
                   <c:v>2.4937500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1268,321 +1259,315 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l20'!$D$2:$D$105</c:f>
+              <c:f>'9_l_l10'!$D$2:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>0.66830285714285709</c:v>
+                  <c:v>0.64156999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3366042857142859</c:v>
+                  <c:v>1.2831399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.004914285714285</c:v>
+                  <c:v>1.924714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6732142857142862</c:v>
+                  <c:v>2.5662857142857138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3415142857142861</c:v>
+                  <c:v>3.2078571428571432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0098142857142864</c:v>
+                  <c:v>3.8494285714285712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6781142857142859</c:v>
+                  <c:v>4.4909857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3464142857142862</c:v>
+                  <c:v>5.1325571428571424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0147285714285719</c:v>
+                  <c:v>5.7741285714285722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6830285714285713</c:v>
+                  <c:v>6.4157000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3513285714285708</c:v>
+                  <c:v>7.0572714285714291</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0196285714285711</c:v>
+                  <c:v>7.6988428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6879285714285714</c:v>
+                  <c:v>8.3404142857142851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3562285714285718</c:v>
+                  <c:v>8.9819857142857149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.02454285714286</c:v>
+                  <c:v>9.6234142857142864</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.69284285714286</c:v>
+                  <c:v>10.26485714285714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.361142857142861</c:v>
+                  <c:v>10.906414285714289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02898571428571</c:v>
+                  <c:v>11.547971428571429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.69688571428571</c:v>
+                  <c:v>12.18911428571429</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.364485714285721</c:v>
+                  <c:v>12.829800000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.03181428571428</c:v>
+                  <c:v>13.47001428571429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.698</c:v>
+                  <c:v>14.11012857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.363714285714289</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.029142857142858</c:v>
+                  <c:v>15.387</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.692428571428572</c:v>
+                  <c:v>16.022285714285719</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.354428571428571</c:v>
+                  <c:v>16.649714285714289</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.01071428571429</c:v>
+                  <c:v>17.26342857142857</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.659285714285719</c:v>
+                  <c:v>17.866</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.298999999999999</c:v>
+                  <c:v>18.446000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.917999999999999</c:v>
+                  <c:v>18.990285714285719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.50714285714286</c:v>
+                  <c:v>19.529285714285709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21.062999999999999</c:v>
+                  <c:v>20.130142857142861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.685857142857142</c:v>
+                  <c:v>20.730428571428568</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.320285714285721</c:v>
+                  <c:v>21.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.95514285714286</c:v>
+                  <c:v>21.940285714285711</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.588428571428569</c:v>
+                  <c:v>22.549142857142861</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.223571428571429</c:v>
+                  <c:v>23.152285714285711</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.855428571428568</c:v>
+                  <c:v>23.754285714285711</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.48828571428572</c:v>
+                  <c:v>24.352285714285721</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.118285714285719</c:v>
+                  <c:v>24.956142857142861</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.745142857142859</c:v>
+                  <c:v>25.55228571428572</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.377714285714291</c:v>
+                  <c:v>26.154142857142858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.014571428571429</c:v>
+                  <c:v>26.75714285714286</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.651142857142851</c:v>
+                  <c:v>27.35557142857143</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.28585714285715</c:v>
+                  <c:v>27.956714285714291</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29.918571428571429</c:v>
+                  <c:v>28.552714285714291</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.549142857142861</c:v>
+                  <c:v>29.152142857142859</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.168857142857149</c:v>
+                  <c:v>29.728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.794714285714289</c:v>
+                  <c:v>30.255714285714291</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.415714285714287</c:v>
+                  <c:v>30.639142857142851</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>33.019285714285722</c:v>
+                  <c:v>30.805428571428571</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.560142857142857</c:v>
+                  <c:v>30.508857142857138</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.899142857142863</c:v>
+                  <c:v>29.84628571428571</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>29.087428571428571</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.712285714285713</c:v>
+                  <c:v>27.999142857142861</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>33.094000000000001</c:v>
+                  <c:v>26.146714285714289</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.304714285714283</c:v>
+                  <c:v>21.516285714285711</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.73657142857143</c:v>
+                  <c:v>17.603999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>26.770857142857139</c:v>
+                  <c:v>13.151914285714289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.61728571428571</c:v>
+                  <c:v>6.9400714285714287</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.48028571428571</c:v>
+                  <c:v>5.466328571428571</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.349971428571431</c:v>
+                  <c:v>4.9257142857142862</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.328785714285714</c:v>
+                  <c:v>4.5513428571428571</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.349828571428572</c:v>
+                  <c:v>4.3153571428571427</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.8802571428571431</c:v>
+                  <c:v>3.9486428571428571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6215714285714291</c:v>
+                  <c:v>3.4697428571428568</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.476228571428571</c:v>
+                  <c:v>3.1099285714285712</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.363548571428572</c:v>
+                  <c:v>2.8709285714285708</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2948928571428571</c:v>
+                  <c:v>2.717714285714286</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2171114285714291</c:v>
+                  <c:v>2.5588000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.144007142857143</c:v>
+                  <c:v>2.4507285714285709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.07511</c:v>
+                  <c:v>2.369014285714286</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.029872857142857</c:v>
+                  <c:v>2.292414285714286</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99146285714285709</c:v>
+                  <c:v>2.1901285714285712</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.94717857142857131</c:v>
+                  <c:v>2.0926</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.90550571428571425</c:v>
+                  <c:v>2.0375571428571431</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.86613714285714294</c:v>
+                  <c:v>1.979557142857143</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.84465714285714277</c:v>
+                  <c:v>1.935214285714286</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.82392857142857134</c:v>
+                  <c:v>1.895257142857143</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.78123285714285717</c:v>
+                  <c:v>1.8669714285714289</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.75667428571428574</c:v>
+                  <c:v>1.822542857142857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74728285714285714</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.74703571428571425</c:v>
+                  <c:v>1.7364571428571429</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.74261142857142859</c:v>
+                  <c:v>1.6563000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.73533285714285712</c:v>
+                  <c:v>1.6059571428571431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.72671285714285716</c:v>
+                  <c:v>1.4770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.71923999999999999</c:v>
+                  <c:v>0.69816857142857147</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.71304428571428569</c:v>
+                  <c:v>0.29638857142857139</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.70200714285714294</c:v>
+                  <c:v>0.25728142857142849</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.68572857142857135</c:v>
+                  <c:v>0.24782428571428569</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.67910428571428572</c:v>
+                  <c:v>0.24598428571428571</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.67665285714285706</c:v>
+                  <c:v>0.2448628571428571</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.67258857142857142</c:v>
+                  <c:v>0.24285428571428569</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.65574857142857146</c:v>
+                  <c:v>0.2446928571428571</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.64049428571428579</c:v>
+                  <c:v>0.2462785714285714</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.62914857142857139</c:v>
+                  <c:v>0.24754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.6092657142857143</c:v>
+                  <c:v>0.2487185714285714</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.59248999999999996</c:v>
+                  <c:v>0.24926999999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.55965571428571426</c:v>
+                  <c:v>0.25084857142857142</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.55550714285714287</c:v>
+                  <c:v>0.25143285714285718</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.55165428571428576</c:v>
+                  <c:v>0.25095571428571428</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.54765857142857144</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.53959714285714289</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.52616000000000007</c:v>
+                  <c:v>0.24698571428571431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B262-414B-AD95-FA9235CBD945}"/>
+              <c16:uniqueId val="{00000000-DD8A-9145-8BE0-FBE86749C47E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1741,7 +1726,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l20'!$C$2:$C$10</c:f>
+              <c:f>'9_l_l10'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1777,36 +1762,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l20'!$D$2:$D$10</c:f>
+              <c:f>'9_l_l10'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.66830285714285709</c:v>
+                  <c:v>0.64156999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3366042857142859</c:v>
+                  <c:v>1.2831399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.004914285714285</c:v>
+                  <c:v>1.924714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6732142857142862</c:v>
+                  <c:v>2.5662857142857138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3415142857142861</c:v>
+                  <c:v>3.2078571428571432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0098142857142864</c:v>
+                  <c:v>3.8494285714285712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6781142857142859</c:v>
+                  <c:v>4.4909857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3464142857142862</c:v>
+                  <c:v>5.1325571428571424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0147285714285719</c:v>
+                  <c:v>5.7741285714285722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,7 +1799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8AE5-AA44-968C-72310AA5A000}"/>
+              <c16:uniqueId val="{00000000-6250-894D-AF1D-8DC1ADF3CAC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,7 +1924,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en"/>
-              <a:t>9_c21_th0.564</a:t>
+              <a:t>9_l_l20</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1965,7 +1950,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
+              <c:f>'9_l_l20'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -2286,321 +2271,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
+              <c:f>'9_l_l20'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>0.68082142857142858</c:v>
+                  <c:v>0.66830285714285709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3616428571428569</c:v>
+                  <c:v>1.3366042857142859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0424571428571432</c:v>
+                  <c:v>2.004914285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7232857142857139</c:v>
+                  <c:v>2.6732142857142862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4041000000000001</c:v>
+                  <c:v>3.3415142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0849285714285717</c:v>
+                  <c:v>4.0098142857142864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7657428571428566</c:v>
+                  <c:v>4.6781142857142859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4465714285714286</c:v>
+                  <c:v>5.3464142857142862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1273857142857144</c:v>
+                  <c:v>6.0147285714285719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8082142857142864</c:v>
+                  <c:v>6.6830285714285713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4890285714285714</c:v>
+                  <c:v>7.3513285714285708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1698571428571434</c:v>
+                  <c:v>8.0196285714285711</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8506714285714292</c:v>
+                  <c:v>8.6879285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5315000000000012</c:v>
+                  <c:v>9.3562285714285718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.212314285714291</c:v>
+                  <c:v>10.02454285714286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.893142857142861</c:v>
+                  <c:v>10.69284285714286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.57395714285714</c:v>
+                  <c:v>11.361142857142861</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.2545</c:v>
+                  <c:v>12.02898571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.93487142857143</c:v>
+                  <c:v>12.69688571428571</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.61528571428572</c:v>
+                  <c:v>13.364485714285721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.29542857142857</c:v>
+                  <c:v>14.03181428571428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.97442857142857</c:v>
+                  <c:v>14.698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.653142857142861</c:v>
+                  <c:v>15.363714285714289</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.33071428571429</c:v>
+                  <c:v>16.029142857142858</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.007000000000001</c:v>
+                  <c:v>16.692428571428572</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.679714285714279</c:v>
+                  <c:v>17.354428571428571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.347999999999999</c:v>
+                  <c:v>18.01071428571429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.004857142857141</c:v>
+                  <c:v>18.659285714285719</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.64828571428572</c:v>
+                  <c:v>19.298999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.273428571428571</c:v>
+                  <c:v>19.917999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.90585714285714</c:v>
+                  <c:v>20.50714285714286</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21.53257142857143</c:v>
+                  <c:v>21.062999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.138999999999999</c:v>
+                  <c:v>21.685857142857142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.779142857142858</c:v>
+                  <c:v>22.320285714285721</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.425142857142859</c:v>
+                  <c:v>22.95514285714286</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24.070285714285721</c:v>
+                  <c:v>23.588428571428569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.717571428571429</c:v>
+                  <c:v>24.223571428571429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.36542857142857</c:v>
+                  <c:v>24.855428571428568</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.013000000000002</c:v>
+                  <c:v>25.48828571428572</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.66357142857143</c:v>
+                  <c:v>26.118285714285719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.312142857142859</c:v>
+                  <c:v>26.745142857142859</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.95814285714286</c:v>
+                  <c:v>27.377714285714291</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.599142857142859</c:v>
+                  <c:v>28.014571428571429</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>29.24342857142857</c:v>
+                  <c:v>28.651142857142851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.893000000000001</c:v>
+                  <c:v>29.28585714285715</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.540285714285719</c:v>
+                  <c:v>29.918571428571429</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.184999999999999</c:v>
+                  <c:v>30.549142857142861</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.829142857142859</c:v>
+                  <c:v>31.168857142857149</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32.466285714285711</c:v>
+                  <c:v>31.794714285714289</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>33.108714285714292</c:v>
+                  <c:v>32.415714285714287</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>33.726285714285723</c:v>
+                  <c:v>33.019285714285722</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.273285714285713</c:v>
+                  <c:v>33.560142857142857</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.726999999999997</c:v>
+                  <c:v>33.899142857142863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>33.994999999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.908428571428573</c:v>
+                  <c:v>33.712285714285713</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34.551142857142857</c:v>
+                  <c:v>33.094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>33.861714285714292</c:v>
+                  <c:v>32.304714285714283</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32.586285714285722</c:v>
+                  <c:v>30.73657142857143</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29.460714285714289</c:v>
+                  <c:v>26.770857142857139</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24.737285714285711</c:v>
+                  <c:v>22.61728571428571</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.62757142857143</c:v>
+                  <c:v>18.48028571428571</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.2256714285714292</c:v>
+                  <c:v>10.349971428571431</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.4344999999999999</c:v>
+                  <c:v>4.328785714285714</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.0487571428571432</c:v>
+                  <c:v>2.349828571428572</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.3375428571428571</c:v>
+                  <c:v>1.8802571428571431</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8121142857142858</c:v>
+                  <c:v>1.6215714285714291</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.361528571428571</c:v>
+                  <c:v>1.476228571428571</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1723571428571429</c:v>
+                  <c:v>1.363548571428572</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.030985714285714</c:v>
+                  <c:v>1.2948928571428571</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8978285714285721</c:v>
+                  <c:v>1.2171114285714291</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.746585714285714</c:v>
+                  <c:v>1.144007142857143</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5734571428571431</c:v>
+                  <c:v>1.07511</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2638557142857141</c:v>
+                  <c:v>1.029872857142857</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.157992857142857</c:v>
+                  <c:v>0.99146285714285709</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0870171428571429</c:v>
+                  <c:v>0.94717857142857131</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99519714285714278</c:v>
+                  <c:v>0.90550571428571425</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.90527714285714289</c:v>
+                  <c:v>0.86613714285714294</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.84809000000000001</c:v>
+                  <c:v>0.84465714285714277</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.79677142857142857</c:v>
+                  <c:v>0.82392857142857134</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.75549428571428567</c:v>
+                  <c:v>0.78123285714285717</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.73273857142857146</c:v>
+                  <c:v>0.75667428571428574</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.70210714285714282</c:v>
+                  <c:v>0.74728285714285714</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.68364142857142862</c:v>
+                  <c:v>0.74703571428571425</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.66199857142857144</c:v>
+                  <c:v>0.74261142857142859</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.64025999999999994</c:v>
+                  <c:v>0.73533285714285712</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.61717857142857147</c:v>
+                  <c:v>0.72671285714285716</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.59474714285714292</c:v>
+                  <c:v>0.71923999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.58576857142857142</c:v>
+                  <c:v>0.71304428571428569</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.56785285714285705</c:v>
+                  <c:v>0.70200714285714294</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.55651714285714293</c:v>
+                  <c:v>0.68572857142857135</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.55040428571428579</c:v>
+                  <c:v>0.67910428571428572</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.53761999999999999</c:v>
+                  <c:v>0.67665285714285706</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.52343714285714282</c:v>
+                  <c:v>0.67258857142857142</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.51607142857142863</c:v>
+                  <c:v>0.65574857142857146</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.50963714285714279</c:v>
+                  <c:v>0.64049428571428579</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.50811714285714282</c:v>
+                  <c:v>0.62914857142857139</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5022428571428571</c:v>
+                  <c:v>0.6092657142857143</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.49661285714285719</c:v>
+                  <c:v>0.59248999999999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.49829857142857142</c:v>
+                  <c:v>0.55965571428571426</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.49814142857142862</c:v>
+                  <c:v>0.55550714285714287</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.49597857142857138</c:v>
+                  <c:v>0.55165428571428576</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.49336714285714278</c:v>
+                  <c:v>0.54765857142857144</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.48998000000000003</c:v>
+                  <c:v>0.53959714285714289</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.48570714285714278</c:v>
+                  <c:v>0.52616000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,7 +2593,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8AA-A248-BAC4-0B3B35E47A37}"/>
+              <c16:uniqueId val="{00000000-B262-414B-AD95-FA9235CBD945}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2759,7 +2744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$C$2:$C$10</c:f>
+              <c:f>'9_l_l20'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2795,36 +2780,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$D$2:$D$10</c:f>
+              <c:f>'9_l_l20'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.68082142857142858</c:v>
+                  <c:v>0.66830285714285709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3616428571428569</c:v>
+                  <c:v>1.3366042857142859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0424571428571432</c:v>
+                  <c:v>2.004914285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7232857142857139</c:v>
+                  <c:v>2.6732142857142862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4041000000000001</c:v>
+                  <c:v>3.3415142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0849285714285717</c:v>
+                  <c:v>4.0098142857142864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7657428571428566</c:v>
+                  <c:v>4.6781142857142859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4465714285714286</c:v>
+                  <c:v>5.3464142857142862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1273857142857144</c:v>
+                  <c:v>6.0147285714285719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,7 +2817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6496-AE47-AC5E-23DF4D1E582C}"/>
+              <c16:uniqueId val="{00000000-8AE5-AA44-968C-72310AA5A000}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2956,6 +2941,1024 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
+              <a:t>9_c21_th0.564</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.68082142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8082142857142864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4890285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1698571428571434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8506714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5315000000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.212314285714291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.893142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57395714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.2545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.93487142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.61528571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.29542857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.97442857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.653142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.33071428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.679714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.004857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.64828571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.273428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.90585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.53257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.779142857142858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.070285714285721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.717571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.36542857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.66357142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.312142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.95814285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.599142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.24342857142857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.540285714285719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.829142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.466285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.108714285714292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.726285714285723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.273285714285713</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.908428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.861714285714292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.586285714285722</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.460714285714289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.737285714285711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.62757142857143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2256714285714292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0487571428571432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3375428571428571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8121142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.361528571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1723571428571429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.030985714285714</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8978285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.746585714285714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5734571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2638557142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.157992857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0870171428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99519714285714278</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90527714285714289</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79677142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75549428571428567</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73273857142857146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70210714285714282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68364142857142862</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66199857142857144</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64025999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61717857142857147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59474714285714292</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58576857142857142</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56785285714285705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55651714285714293</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55040428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52343714285714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50963714285714279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50811714285714282</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5022428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49661285714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49829857142857142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49814142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49597857142857138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49336714285714278</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48998000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48570714285714278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8AA-A248-BAC4-0B3B35E47A37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.68082142857142858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6496-AE47-AC5E-23DF4D1E582C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>9_l_l30</a:t>
             </a:r>
           </a:p>
@@ -3699,7 +4702,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3914,7 +4917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4652,991 +5655,6 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en"/>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_l_l40'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_l_l40'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.71804428571428569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.436085714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1541285714285712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8721714285714279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.590214285714286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3082714285714294</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0263142857142853</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7443571428571429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A66D-7749-9888-EB1FD1B6FEAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en"/>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en"/>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>9_l_l50</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_l_l50'!$C$2:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_l_l50'!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.74326999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4865428571428569</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2298142857142862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.973071428571429</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7163428571428572</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4596142857142853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2028857142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9461571428571416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6894285714285724</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4326999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1759714285714278</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.9192285714285706</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.6624999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.40577142857143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.14878571428571</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.89202857142857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.635157142857141</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.378214285714289</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.1212</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.863714285714289</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.60614285714286</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.348142857142861</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.090142857142851</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.831</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18.57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.305714285714291</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.031857142857142</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.749285714285719</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.45371428571428</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.136571428571429</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.79</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.464571428571428</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.158571428571431</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.872285714285709</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.58642857142857</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26.299571428571429</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27.012</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27.725285714285711</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>28.434714285714289</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29.138999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.848142857142861</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>30.558428571428571</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>31.263857142857141</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31.966999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.659285714285723</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.356000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>34.053428571428569</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34.750714285714288</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>35.441857142857138</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>36.117428571428569</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>36.680999999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>37.087142857142858</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>37.140714285714282</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>36.872999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>35.863142857142861</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>28.330857142857141</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.775857142857141</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.007000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13.821285714285709</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.8575142857142843</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.5070999999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.0877571428571429</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.7898428571428573</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1470142857142864</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.885428571428571</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.64002285714285712</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.35558142857142849</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.24215</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.1977942857142857</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.18472142857142859</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.18199285714285721</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.18280571428571429</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.1836957142857143</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.18331428571428571</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.18513714285714289</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.1870871428571429</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.18615142857142861</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.1852985714285714</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.18299000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.17764142857142859</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.1761257142857143</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.17222571428571429</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.1713985714285714</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.16660714285714279</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.16535</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.16703714285714291</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.16275714285714291</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.16449142857142859</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.16628142857142861</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.16756428571428569</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.16929285714285711</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.1711</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.1728985714285714</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.17090857142857141</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.17233142857142861</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.1740714285714286</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.17119142857142861</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.1690214285714286</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.16980285714285709</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.16814714285714291</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5B8-7048-8249-075CCF1CB20C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6111,6 +6129,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -6137,7 +6156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l50'!$C$2:$C$9</c:f>
+              <c:f>'9_l_l40'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6170,33 +6189,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l50'!$D$2:$D$9</c:f>
+              <c:f>'9_l_l40'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.74326999999999999</c:v>
+                  <c:v>0.71804428571428569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4865428571428569</c:v>
+                  <c:v>1.436085714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2298142857142862</c:v>
+                  <c:v>2.1541285714285712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.973071428571429</c:v>
+                  <c:v>2.8721714285714279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7163428571428572</c:v>
+                  <c:v>3.590214285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4596142857142853</c:v>
+                  <c:v>4.3082714285714294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2028857142857143</c:v>
+                  <c:v>5.0263142857142853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9461571428571416</c:v>
+                  <c:v>5.7443571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6204,7 +6223,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DCC-5A40-B870-E5E8E7D708D0}"/>
+              <c16:uniqueId val="{00000000-A66D-7749-9888-EB1FD1B6FEAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6237,6 +6256,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6270,6 +6290,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6326,7 +6347,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_l_l60</a:t>
+              <a:t>9_l_l50</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6352,7 +6373,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l60'!$C$2:$C$101</c:f>
+              <c:f>'9_l_l50'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -6661,309 +6682,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l60'!$D$2:$D$101</c:f>
+              <c:f>'9_l_l50'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.77037571428571427</c:v>
+                  <c:v>0.74326999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5407571428571429</c:v>
+                  <c:v>1.4865428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3111285714285712</c:v>
+                  <c:v>2.2298142857142862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0815000000000001</c:v>
+                  <c:v>2.973071428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8518714285714282</c:v>
+                  <c:v>3.7163428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6222571428571424</c:v>
+                  <c:v>4.4596142857142853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3926285714285713</c:v>
+                  <c:v>5.2028857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1630000000000003</c:v>
+                  <c:v>5.9461571428571416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9333857142857136</c:v>
+                  <c:v>6.6894285714285724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7037571428571434</c:v>
+                  <c:v>7.4326999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4741285714285706</c:v>
+                  <c:v>8.1759714285714278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2445142857142848</c:v>
+                  <c:v>8.9192285714285706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.014885714285709</c:v>
+                  <c:v>9.6624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.785257142857141</c:v>
+                  <c:v>10.40577142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.555628571428571</c:v>
+                  <c:v>11.14878571428571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.325900000000001</c:v>
+                  <c:v>11.89202857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.09614285714286</c:v>
+                  <c:v>12.635157142857141</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.8665</c:v>
+                  <c:v>13.378214285714289</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.636714285714289</c:v>
+                  <c:v>14.1212</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.40671428571429</c:v>
+                  <c:v>14.863714285714289</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.176714285714279</c:v>
+                  <c:v>15.60614285714286</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.94614285714286</c:v>
+                  <c:v>16.348142857142861</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.714857142857142</c:v>
+                  <c:v>17.090142857142851</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.482857142857139</c:v>
+                  <c:v>17.831</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.25</c:v>
+                  <c:v>18.57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.014142857142861</c:v>
+                  <c:v>19.305714285714291</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.770857142857139</c:v>
+                  <c:v>20.031857142857142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.513999999999999</c:v>
+                  <c:v>20.749285714285719</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.244</c:v>
+                  <c:v>21.45371428571428</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.94885714285714</c:v>
+                  <c:v>22.136571428571429</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.6</c:v>
+                  <c:v>22.79</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.283571428571431</c:v>
+                  <c:v>23.464571428571428</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.01257142857143</c:v>
+                  <c:v>24.158571428571431</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.74585714285714</c:v>
+                  <c:v>24.872285714285709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.481000000000002</c:v>
+                  <c:v>25.58642857142857</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.21442857142857</c:v>
+                  <c:v>26.299571428571429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.943571428571431</c:v>
+                  <c:v>27.012</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.674857142857139</c:v>
+                  <c:v>27.725285714285711</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29.407428571428571</c:v>
+                  <c:v>28.434714285714289</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.143428571428569</c:v>
+                  <c:v>29.138999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.877142857142861</c:v>
+                  <c:v>29.848142857142861</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>31.604142857142861</c:v>
+                  <c:v>30.558428571428571</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32.335000000000001</c:v>
+                  <c:v>31.263857142857141</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>33.061857142857143</c:v>
+                  <c:v>31.966999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33.784999999999997</c:v>
+                  <c:v>32.659285714285723</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.507285714285707</c:v>
+                  <c:v>33.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35.21257142857143</c:v>
+                  <c:v>34.053428571428569</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.89714285714286</c:v>
+                  <c:v>34.750714285714288</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>36.527999999999999</c:v>
+                  <c:v>35.441857142857138</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.975571428571428</c:v>
+                  <c:v>36.117428571428569</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.158285714285711</c:v>
+                  <c:v>36.680999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.799857142857142</c:v>
+                  <c:v>37.087142857142858</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.158714285714289</c:v>
+                  <c:v>37.140714285714282</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.75</c:v>
+                  <c:v>36.872999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26.346142857142858</c:v>
+                  <c:v>35.863142857142861</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.053000000000001</c:v>
+                  <c:v>28.330857142857141</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.481</c:v>
+                  <c:v>21.775857142857141</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.007428571428569</c:v>
+                  <c:v>18.007000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.0035000000000007</c:v>
+                  <c:v>13.821285714285709</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1989000000000001</c:v>
+                  <c:v>9.8575142857142843</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1601142857142861</c:v>
+                  <c:v>8.5070999999999994</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.538428571428571</c:v>
+                  <c:v>7.0877571428571429</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3212585714285709</c:v>
+                  <c:v>5.7898428571428573</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2199071428571431</c:v>
+                  <c:v>4.1470142857142864</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1510071428571429</c:v>
+                  <c:v>1.885428571428571</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.117934285714286</c:v>
+                  <c:v>0.64002285714285712</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0846285714285711</c:v>
+                  <c:v>0.35558142857142849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.056811428571429</c:v>
+                  <c:v>0.24215</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.03007</c:v>
+                  <c:v>0.1977942857142857</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.005101428571429</c:v>
+                  <c:v>0.18472142857142859</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.9626300000000001</c:v>
+                  <c:v>0.18199285714285721</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.93413428571428569</c:v>
+                  <c:v>0.18280571428571429</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.90721857142857143</c:v>
+                  <c:v>0.1836957142857143</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.88659285714285718</c:v>
+                  <c:v>0.18331428571428571</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.85666857142857145</c:v>
+                  <c:v>0.18513714285714289</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.81620142857142852</c:v>
+                  <c:v>0.1870871428571429</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.78293142857142861</c:v>
+                  <c:v>0.18615142857142861</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.76743000000000006</c:v>
+                  <c:v>0.1852985714285714</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.75299142857142864</c:v>
+                  <c:v>0.18299000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.73828142857142853</c:v>
+                  <c:v>0.17764142857142859</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.7339971428571429</c:v>
+                  <c:v>0.1761257142857143</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.73146428571428568</c:v>
+                  <c:v>0.17222571428571429</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.72723142857142853</c:v>
+                  <c:v>0.1713985714285714</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.71821000000000002</c:v>
+                  <c:v>0.16660714285714279</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.70986857142857152</c:v>
+                  <c:v>0.16535</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.70567285714285721</c:v>
+                  <c:v>0.16703714285714291</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.69660142857142848</c:v>
+                  <c:v>0.16275714285714291</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.67819000000000007</c:v>
+                  <c:v>0.16449142857142859</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.66776142857142851</c:v>
+                  <c:v>0.16628142857142861</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.6642042857142858</c:v>
+                  <c:v>0.16756428571428569</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.6551271428571428</c:v>
+                  <c:v>0.16929285714285711</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.64583285714285721</c:v>
+                  <c:v>0.1711</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.64750428571428564</c:v>
+                  <c:v>0.1728985714285714</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.64829857142857139</c:v>
+                  <c:v>0.17090857142857141</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.64890285714285711</c:v>
+                  <c:v>0.17233142857142861</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.64890857142857139</c:v>
+                  <c:v>0.1740714285714286</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.64762714285714285</c:v>
+                  <c:v>0.17119142857142861</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.64953714285714281</c:v>
+                  <c:v>0.1690214285714286</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.65225428571428579</c:v>
+                  <c:v>0.16980285714285709</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.64091857142857145</c:v>
+                  <c:v>0.16814714285714291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,7 +6992,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A360-3D4F-B7BB-5191B3271436}"/>
+              <c16:uniqueId val="{00000000-A5B8-7048-8249-075CCF1CB20C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7119,7 +7140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l60'!$C$2:$C$9</c:f>
+              <c:f>'9_l_l50'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7152,33 +7173,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l60'!$D$2:$D$9</c:f>
+              <c:f>'9_l_l50'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.77037571428571427</c:v>
+                  <c:v>0.74326999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5407571428571429</c:v>
+                  <c:v>1.4865428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3111285714285712</c:v>
+                  <c:v>2.2298142857142862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0815000000000001</c:v>
+                  <c:v>2.973071428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8518714285714282</c:v>
+                  <c:v>3.7163428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6222571428571424</c:v>
+                  <c:v>4.4596142857142853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3926285714285713</c:v>
+                  <c:v>5.2028857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1630000000000003</c:v>
+                  <c:v>5.9461571428571416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7186,7 +7207,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F15-024C-B2C8-877B33C5400C}"/>
+              <c16:uniqueId val="{00000000-6DCC-5A40-B870-E5E8E7D708D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7308,7 +7329,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_l_l70</a:t>
+              <a:t>9_l_l60</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7334,10 +7355,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l70'!$C$2:$C$102</c:f>
+              <c:f>'9_l_l60'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -7636,9 +7657,6 @@
                   <c:v>2.4750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7646,312 +7664,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l70'!$D$2:$D$102</c:f>
+              <c:f>'9_l_l60'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.80105571428571432</c:v>
+                  <c:v>0.77037571428571427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.602114285714286</c:v>
+                  <c:v>1.5407571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.403171428571429</c:v>
+                  <c:v>2.3111285714285712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2042285714285712</c:v>
+                  <c:v>3.0815000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0052857142857148</c:v>
+                  <c:v>3.8518714285714282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.806342857142857</c:v>
+                  <c:v>4.6222571428571424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6073999999999993</c:v>
+                  <c:v>5.3926285714285713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4084571428571424</c:v>
+                  <c:v>6.1630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2095000000000002</c:v>
+                  <c:v>6.9333857142857136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0105571428571434</c:v>
+                  <c:v>7.7037571428571434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8116142857142847</c:v>
+                  <c:v>8.4741285714285706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6126714285714279</c:v>
+                  <c:v>9.2445142857142848</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.413728571428569</c:v>
+                  <c:v>10.014885714285709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.214785714285711</c:v>
+                  <c:v>10.785257142857141</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.01571428571429</c:v>
+                  <c:v>11.555628571428571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.816371428571429</c:v>
+                  <c:v>12.325900000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.616485714285711</c:v>
+                  <c:v>13.09614285714286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.41628571428571</c:v>
+                  <c:v>13.8665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.215999999999999</c:v>
+                  <c:v>14.636714285714289</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.01557142857143</c:v>
+                  <c:v>15.40671428571429</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.812999999999999</c:v>
+                  <c:v>16.176714285714279</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.60828571428571</c:v>
+                  <c:v>16.94614285714286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.400571428571428</c:v>
+                  <c:v>17.714857142857142</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.18128571428571</c:v>
+                  <c:v>18.482857142857139</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.950428571428571</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.692428571428572</c:v>
+                  <c:v>20.014142857142861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.396142857142859</c:v>
+                  <c:v>20.770857142857139</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.083571428571432</c:v>
+                  <c:v>21.513999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.834857142857139</c:v>
+                  <c:v>22.244</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.60071428571429</c:v>
+                  <c:v>22.94885714285714</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.36957142857143</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.14171428571429</c:v>
+                  <c:v>24.283571428571431</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.90671428571429</c:v>
+                  <c:v>25.01257142857143</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.66985714285714</c:v>
+                  <c:v>25.74585714285714</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.43571428571429</c:v>
+                  <c:v>26.481000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.198142857142859</c:v>
+                  <c:v>27.21442857142857</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28.961285714285719</c:v>
+                  <c:v>27.943571428571431</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29.720857142857142</c:v>
+                  <c:v>28.674857142857139</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.47</c:v>
+                  <c:v>29.407428571428571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.224428571428572</c:v>
+                  <c:v>30.143428571428569</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31.97871428571429</c:v>
+                  <c:v>30.877142857142861</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.726999999999997</c:v>
+                  <c:v>31.604142857142861</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.465857142857153</c:v>
+                  <c:v>32.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.207285714285717</c:v>
+                  <c:v>33.061857142857143</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34.95214285714286</c:v>
+                  <c:v>33.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35.685000000000002</c:v>
+                  <c:v>34.507285714285707</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36.356285714285718</c:v>
+                  <c:v>35.21257142857143</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.919285714285706</c:v>
+                  <c:v>35.89714285714286</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.527999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.995571428571431</c:v>
+                  <c:v>36.975571428571428</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>36.615714285714283</c:v>
+                  <c:v>37.158285714285711</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35.25</c:v>
+                  <c:v>36.799857142857142</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.551857142857141</c:v>
+                  <c:v>36.158714285714289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.878428571428572</c:v>
+                  <c:v>34.75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.24164285714286</c:v>
+                  <c:v>26.346142857142858</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.142157142857144</c:v>
+                  <c:v>18.053000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.4494000000000007</c:v>
+                  <c:v>14.481</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.1058714285714286</c:v>
+                  <c:v>12.007428571428569</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.5019999999999998</c:v>
+                  <c:v>9.0035000000000007</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.776571428571428</c:v>
+                  <c:v>4.1989000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.498428571428571</c:v>
+                  <c:v>2.1601142857142861</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3665257142857139</c:v>
+                  <c:v>1.538428571428571</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2844628571428569</c:v>
+                  <c:v>1.3212585714285709</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2244042857142861</c:v>
+                  <c:v>1.2199071428571431</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1944699999999999</c:v>
+                  <c:v>1.1510071428571429</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.166871428571429</c:v>
+                  <c:v>1.117934285714286</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.124052857142857</c:v>
+                  <c:v>1.0846285714285711</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.087561428571429</c:v>
+                  <c:v>1.056811428571429</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0451057142857141</c:v>
+                  <c:v>1.03007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.00817</c:v>
+                  <c:v>1.005101428571429</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.98063285714285719</c:v>
+                  <c:v>0.9626300000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.95901285714285711</c:v>
+                  <c:v>0.93413428571428569</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.92722999999999989</c:v>
+                  <c:v>0.90721857142857143</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.90991428571428579</c:v>
+                  <c:v>0.88659285714285718</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8817085714285714</c:v>
+                  <c:v>0.85666857142857145</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.84967857142857139</c:v>
+                  <c:v>0.81620142857142852</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.82520142857142853</c:v>
+                  <c:v>0.78293142857142861</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.81710142857142853</c:v>
+                  <c:v>0.76743000000000006</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.80656428571428573</c:v>
+                  <c:v>0.75299142857142864</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.80167714285714287</c:v>
+                  <c:v>0.73828142857142853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.7877871428571428</c:v>
+                  <c:v>0.7339971428571429</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.76942714285714287</c:v>
+                  <c:v>0.73146428571428568</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.75319428571428571</c:v>
+                  <c:v>0.72723142857142853</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.73912</c:v>
+                  <c:v>0.71821000000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.71383285714285716</c:v>
+                  <c:v>0.70986857142857152</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.69037428571428572</c:v>
+                  <c:v>0.70567285714285721</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.67017285714285713</c:v>
+                  <c:v>0.69660142857142848</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.6638371428571429</c:v>
+                  <c:v>0.67819000000000007</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.66077428571428565</c:v>
+                  <c:v>0.66776142857142851</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.65314285714285714</c:v>
+                  <c:v>0.6642042857142858</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.64604142857142866</c:v>
+                  <c:v>0.6551271428571428</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.64050428571428564</c:v>
+                  <c:v>0.64583285714285721</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.63125285714285717</c:v>
+                  <c:v>0.64750428571428564</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.62797428571428571</c:v>
+                  <c:v>0.64829857142857139</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.61491000000000007</c:v>
+                  <c:v>0.64890285714285711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.60778571428571426</c:v>
+                  <c:v>0.64890857142857139</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.60327999999999993</c:v>
+                  <c:v>0.64762714285714285</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.59551285714285707</c:v>
+                  <c:v>0.64953714285714281</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.57896428571428571</c:v>
+                  <c:v>0.65225428571428579</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.57377857142857136</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.50973857142857137</c:v>
+                  <c:v>0.64091857142857145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +7974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B61F-164D-B61B-039A34E57611}"/>
+              <c16:uniqueId val="{00000000-A360-3D4F-B7BB-5191B3271436}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8107,10 +8122,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l70'!$C$2:$C$10</c:f>
+              <c:f>'9_l_l60'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -8134,45 +8149,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l70'!$D$2:$D$10</c:f>
+              <c:f>'9_l_l60'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.80105571428571432</c:v>
+                  <c:v>0.77037571428571427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.602114285714286</c:v>
+                  <c:v>1.5407571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.403171428571429</c:v>
+                  <c:v>2.3111285714285712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2042285714285712</c:v>
+                  <c:v>3.0815000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0052857142857148</c:v>
+                  <c:v>3.8518714285714282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.806342857142857</c:v>
+                  <c:v>4.6222571428571424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6073999999999993</c:v>
+                  <c:v>5.3926285714285713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4084571428571424</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2095000000000002</c:v>
+                  <c:v>6.1630000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8180,7 +8189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-087C-5545-8EA6-4A3E7AD5082E}"/>
+              <c16:uniqueId val="{00000000-5F15-024C-B2C8-877B33C5400C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8302,7 +8311,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_l_l80</a:t>
+              <a:t>9_l_l70</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8328,7 +8337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_l_l80'!$C$2:$C$102</c:f>
+              <c:f>'9_l_l70'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8640,312 +8649,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_l_l80'!$D$2:$D$102</c:f>
+              <c:f>'9_l_l70'!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.9066414285714286</c:v>
+                  <c:v>0.80105571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8132857142857139</c:v>
+                  <c:v>1.602114285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.719928571428571</c:v>
+                  <c:v>2.403171428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6265714285714288</c:v>
+                  <c:v>3.2042285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5332142857142852</c:v>
+                  <c:v>4.0052857142857148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4398571428571429</c:v>
+                  <c:v>4.806342857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3464999999999998</c:v>
+                  <c:v>5.6073999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2531428571428576</c:v>
+                  <c:v>6.4084571428571424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1597857142857126</c:v>
+                  <c:v>7.2095000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.066414285714286</c:v>
+                  <c:v>8.0105571428571434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9730571428571437</c:v>
+                  <c:v>8.8116142857142847</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.8797</c:v>
+                  <c:v>9.6126714285714279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.786342857142859</c:v>
+                  <c:v>10.413728571428569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.692985714285721</c:v>
+                  <c:v>11.214785714285711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.599628571428569</c:v>
+                  <c:v>12.01571428571429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.50628571428572</c:v>
+                  <c:v>12.816371428571429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.41285714285714</c:v>
+                  <c:v>13.616485714285711</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.319571428571429</c:v>
+                  <c:v>14.41628571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.226142857142861</c:v>
+                  <c:v>15.215999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.132857142857141</c:v>
+                  <c:v>16.01557142857143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.039428571428569</c:v>
+                  <c:v>16.812999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.94614285714286</c:v>
+                  <c:v>17.60828571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.852714285714281</c:v>
+                  <c:v>18.400571428571428</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.759428571428568</c:v>
+                  <c:v>19.18128571428571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.666</c:v>
+                  <c:v>19.950428571428571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.57271428571428</c:v>
+                  <c:v>20.692428571428572</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.479285714285709</c:v>
+                  <c:v>21.396142857142859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.385999999999999</c:v>
+                  <c:v>22.083571428571432</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.292571428571431</c:v>
+                  <c:v>22.834857142857139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.199285714285711</c:v>
+                  <c:v>23.60071428571429</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.10585714285714</c:v>
+                  <c:v>24.36957142857143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.01257142857143</c:v>
+                  <c:v>25.14171428571429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29.919142857142859</c:v>
+                  <c:v>25.90671428571429</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.825857142857139</c:v>
+                  <c:v>26.66985714285714</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31.732428571428571</c:v>
+                  <c:v>27.43571428571429</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.639142857142851</c:v>
+                  <c:v>28.198142857142859</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.545714285714283</c:v>
+                  <c:v>28.961285714285719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34.45242857142857</c:v>
+                  <c:v>29.720857142857142</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.35885714285714</c:v>
+                  <c:v>30.47</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.265428571428572</c:v>
+                  <c:v>31.224428571428572</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.171999999999997</c:v>
+                  <c:v>31.97871428571429</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.078571428571429</c:v>
+                  <c:v>32.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>38.985285714285709</c:v>
+                  <c:v>33.465857142857153</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.891857142857141</c:v>
+                  <c:v>34.207285714285717</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.798428571428573</c:v>
+                  <c:v>34.95214285714286</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.704999999999998</c:v>
+                  <c:v>35.685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42.61157142857143</c:v>
+                  <c:v>36.356285714285718</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.518142857142863</c:v>
+                  <c:v>36.919285714285706</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44.424714285714288</c:v>
+                  <c:v>37.145142857142858</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45.331285714285713</c:v>
+                  <c:v>36.995571428571431</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.237857142857138</c:v>
+                  <c:v>36.615714285714283</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47.144571428571417</c:v>
+                  <c:v>35.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48.051142857142857</c:v>
+                  <c:v>27.551857142857141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48.957857142857137</c:v>
+                  <c:v>19.878428571428572</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49.864428571428583</c:v>
+                  <c:v>14.24164285714286</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.770999999999987</c:v>
+                  <c:v>8.142157142857144</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.677714285714288</c:v>
+                  <c:v>6.4494000000000007</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.584285714285713</c:v>
+                  <c:v>4.1058714285714286</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53.48657142857143</c:v>
+                  <c:v>2.5019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54.335142857142863</c:v>
+                  <c:v>1.776571428571428</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>53.956714285714277</c:v>
+                  <c:v>1.498428571428571</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44.018285714285717</c:v>
+                  <c:v>1.3665257142857139</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.170999999999999</c:v>
+                  <c:v>1.2844628571428569</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25.329714285714289</c:v>
+                  <c:v>1.2244042857142861</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22.495714285714289</c:v>
+                  <c:v>1.1944699999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.425142857142859</c:v>
+                  <c:v>1.166871428571429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.9110571428571426</c:v>
+                  <c:v>1.124052857142857</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.7831428571428569</c:v>
+                  <c:v>1.087561428571429</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.17787714285714279</c:v>
+                  <c:v>1.0451057142857141</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.9535571428571423E-2</c:v>
+                  <c:v>1.00817</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.5748142857142856E-2</c:v>
+                  <c:v>0.98063285714285719</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.6621428571428571E-2</c:v>
+                  <c:v>0.95901285714285711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.742385714285715E-2</c:v>
+                  <c:v>0.92722999999999989</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.8265857142857146E-2</c:v>
+                  <c:v>0.90991428571428579</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.9238999999999999E-2</c:v>
+                  <c:v>0.8817085714285714</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.0407000000000001E-2</c:v>
+                  <c:v>0.84967857142857139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.1593999999999995E-2</c:v>
+                  <c:v>0.82520142857142853</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.2526999999999998E-2</c:v>
+                  <c:v>0.81710142857142853</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.2889428571428567E-2</c:v>
+                  <c:v>0.80656428571428573</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.2754857142857139E-2</c:v>
+                  <c:v>0.80167714285714287</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.3874428571428567E-2</c:v>
+                  <c:v>0.7877871428571428</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.1007000000000005E-2</c:v>
+                  <c:v>0.76942714285714287</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.1254142857142853E-2</c:v>
+                  <c:v>0.75319428571428571</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.1834285714285716E-2</c:v>
+                  <c:v>0.73912</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.2459571428571433E-2</c:v>
+                  <c:v>0.71383285714285716</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3494142857142859E-2</c:v>
+                  <c:v>0.69037428571428572</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.4518571428571424E-2</c:v>
+                  <c:v>0.67017285714285713</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.5579714285714282E-2</c:v>
+                  <c:v>0.6638371428571429</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.6656428571428574E-2</c:v>
+                  <c:v>0.66077428571428565</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7718857142857149E-2</c:v>
+                  <c:v>0.65314285714285714</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.8725857142857143E-2</c:v>
+                  <c:v>0.64604142857142866</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.9067428571428584E-2</c:v>
+                  <c:v>0.64050428571428564</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.9975428571428576E-2</c:v>
+                  <c:v>0.63125285714285717</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1002958571428571</c:v>
+                  <c:v>0.62797428571428571</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.10127899999999999</c:v>
+                  <c:v>0.61491000000000007</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1022618571428571</c:v>
+                  <c:v>0.60778571428571426</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.10315000000000001</c:v>
+                  <c:v>0.60327999999999993</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.10379985714285719</c:v>
+                  <c:v>0.59551285714285707</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.10476442857142861</c:v>
+                  <c:v>0.57896428571428571</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.10516028571428571</c:v>
+                  <c:v>0.57377857142857136</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.1047044285714286</c:v>
+                  <c:v>0.50973857142857137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8953,7 +8962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C9C-F348-9813-9B1359D7F8B8}"/>
+              <c16:uniqueId val="{00000000-B61F-164D-B61B-039A34E57611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9101,6 +9110,1000 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'9_l_l70'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_l_l70'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.80105571428571432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.602114285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.403171428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2042285714285712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0052857142857148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.806342857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6073999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4084571428571424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2095000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-087C-5545-8EA6-4A3E7AD5082E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>9_l_l80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_l_l80'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_l_l80'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.9066414285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8132857142857139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.719928571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6265714285714288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5332142857142852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4398571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3464999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2531428571428576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1597857142857126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.066414285714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9730571428571437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.8797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.786342857142859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.692985714285721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.599628571428569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.50628571428572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.41285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.319571428571429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.226142857142861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.132857142857141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.039428571428569</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.94614285714286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.852714285714281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.759428571428568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.57271428571428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.479285714285709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.292571428571431</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.199285714285711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.10585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.01257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.919142857142859</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.825857142857139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.732428571428571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.639142857142851</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.545714285714283</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.45242857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.35885714285714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.265428571428572</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.078571428571429</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.985285714285709</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39.891857142857141</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.798428571428573</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42.61157142857143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.518142857142863</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.424714285714288</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45.331285714285713</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.237857142857138</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.144571428571417</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.051142857142857</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.957857142857137</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49.864428571428583</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.770999999999987</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.677714285714288</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.584285714285713</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53.48657142857143</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54.335142857142863</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53.956714285714277</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.018285714285717</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.329714285714289</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.495714285714289</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9110571428571426</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7831428571428569</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17787714285714279</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9535571428571423E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.5748142857142856E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6621428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.742385714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8265857142857146E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.9238999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.0407000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1593999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.2526999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.2889428571428567E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.2754857142857139E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3874428571428567E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1007000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.1254142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.1834285714285716E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.2459571428571433E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.3494142857142859E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.4518571428571424E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.5579714285714282E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.6656428571428574E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7718857142857149E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.8725857142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.9067428571428584E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.9975428571428576E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1002958571428571</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10127899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1022618571428571</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.10315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.10379985714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10476442857142861</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10516028571428571</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1047044285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C9C-F348-9813-9B1359D7F8B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>'9_l_l80'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -10693,7 +11696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'まとめ (2)'!$D$1</c:f>
+              <c:f>'まとめ (2)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10759,15 +11762,12 @@
                 <c:pt idx="8">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$D$2:$D$11</c:f>
+              <c:f>'まとめ (2)'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10797,9 +11797,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.145142857142858</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54.335142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11110,7 +12107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'まとめ (2)'!$E$1</c:f>
+              <c:f>'まとめ (2)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11176,15 +12173,12 @@
                 <c:pt idx="8">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$E$2:$E$11</c:f>
+              <c:f>'まとめ (2)'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11214,9 +12208,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.2042233419913417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6265686233766243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11558,7 +12549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'まとめ (2)'!$D$1</c:f>
+              <c:f>'まとめ (2)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11624,15 +12615,12 @@
                 <c:pt idx="8">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$D$2:$D$11</c:f>
+              <c:f>'まとめ (2)'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -11662,9 +12650,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.145142857142858</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54.335142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11877,6 +12862,821 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'まとめ (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.895714285714291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.805428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.994999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.255571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.262714285714281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.140714285714282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.158285714285711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.145142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBF2-5A40-BE46-72FC3E4010DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1316974127"/>
+        <c:axId val="1316211471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1316974127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lap joint length [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316211471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1316211471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tensile strength [MPa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316974127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'まとめ (2)'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42.587857142857153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.587857142857153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6BE7-D044-AEC9-F5EC0C519020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'まとめ (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.895714285714291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.805428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.994999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.255571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.262714285714281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.140714285714282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.158285714285711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.145142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BE7-D044-AEC9-F5EC0C519020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1316974127"/>
+        <c:axId val="1316211471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1316974127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lap joint length [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316211471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1316211471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tensile strength [MPa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316974127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -12622,1009 +14422,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_l_l0'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_l_l0'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.60976857142857144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2195385714285709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8293142857142859</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4390714285714288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0488428571428572</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.658614285714286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2683857142857136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8781571428571429</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.4879285714285713</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14A2-5349-855D-F4664D698D1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en"/>
-              <a:t>9_l_l10</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_l_l10'!$C$2:$C$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_l_l10'!$D$2:$D$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>0.64156999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2831399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.924714285714286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5662857142857138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2078571428571432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8494285714285712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4909857142857144</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1325571428571424</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7741285714285722</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4157000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0572714285714291</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6988428571428571</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.3404142857142851</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.9819857142857149</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.6234142857142864</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.26485714285714</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.906414285714289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.547971428571429</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.18911428571429</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.829800000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.47001428571429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.11012857142857</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.387</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.022285714285719</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.649714285714289</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.26342857142857</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17.866</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.446000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.990285714285719</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.529285714285709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.130142857142861</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.730428571428568</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.335000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.940285714285711</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.549142857142861</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.152285714285711</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>23.754285714285711</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.352285714285721</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.956142857142861</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.55228571428572</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.154142857142858</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26.75714285714286</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27.35557142857143</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.956714285714291</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.552714285714291</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.152142857142859</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.255714285714291</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30.639142857142851</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.805428571428571</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30.508857142857138</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29.84628571428571</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.087428571428571</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27.999142857142861</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>26.146714285714289</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.516285714285711</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.603999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13.151914285714289</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.9400714285714287</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.466328571428571</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.9257142857142862</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.5513428571428571</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.3153571428571427</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.9486428571428571</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.4697428571428568</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.1099285714285712</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.8709285714285708</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.717714285714286</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.5588000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.4507285714285709</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.369014285714286</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.292414285714286</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.1901285714285712</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.0926</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.0375571428571431</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.979557142857143</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.935214285714286</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.895257142857143</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.8669714285714289</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.822542857142857</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.772</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.7364571428571429</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.6563000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.6059571428571431</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.4770000000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.69816857142857147</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.29638857142857139</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.25728142857142849</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.24782428571428569</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.24598428571428571</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.2448628571428571</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.24285428571428569</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.2446928571428571</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.2462785714285714</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.24754999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.2487185714285714</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.24926999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.25084857142857142</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.25143285714285718</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.25095571428571428</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.24698571428571431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD8A-9145-8BE0-FBE86749C47E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en"/>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -13818,6 +14615,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16437,6 +17274,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16754,14 +18107,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -16792,14 +18145,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -16831,15 +18184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16859,6 +18212,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A5CA13-5AF0-6B42-9A6C-FCD5F7B04C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1291590</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37276</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE120A7-EA02-E64E-9FF3-D779B8E0DF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23615,21 +25042,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33A24B7-DA4C-9541-AE08-DDC923139E25}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23639,14 +25066,15 @@
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -23658,13 +25086,17 @@
         <v>40</v>
       </c>
       <c r="D2" s="3">
+        <f>B2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>23.895714285714291</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>2.4390766753246749</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -23676,13 +25108,17 @@
         <v>45</v>
       </c>
       <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="1">B3/C3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E3" s="3">
         <v>30.805428571428571</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>2.566278199134199</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -23694,13 +25130,17 @@
         <v>50</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="3">
         <v>33.994999999999997</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>2.673209731601732</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -23712,13 +25152,17 @@
         <v>52.5</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="E5" s="3">
         <v>34.941571428571429</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>2.7232850216450211</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -23730,13 +25174,17 @@
         <v>55</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="E6" s="3">
         <v>35.255571428571429</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2.7726619047619061</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -23748,13 +25196,17 @@
         <v>60</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="3">
         <v>36.262714285714281</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>2.8721805714285717</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -23766,13 +25218,17 @@
         <v>65</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E8" s="3">
         <v>37.140714285714282</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2.9730775238095228</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -23784,13 +25240,17 @@
         <v>70</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E9" s="3">
         <v>37.158285714285711</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3.0815017142857148</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -23802,28 +25262,58 @@
         <v>75</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E10" s="3">
         <v>37.145142857142858</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3.2042233419913417</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>80</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12" si="2">(80+B12)/2</f>
         <v>80</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="3">B12/C12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>54.335142857142863</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F12" s="3">
         <v>3.6265686233766243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13"/>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>-0.5</v>
+      </c>
+      <c r="D14">
+        <v>42.587857142857153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15">
+        <v>42.587857142857153</v>
       </c>
     </row>
   </sheetData>

--- a/9/lap/9_lap_SS.xlsx
+++ b/9/lap/9_lap_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA4438-F948-CE41-89B2-FD4540EB65CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4168781-3BF5-0A4E-8825-85260B822CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>sheet_name</t>
   </si>
@@ -11759,9 +11759,6 @@
                 <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11772,31 +11769,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.895714285714291</c:v>
+                  <c:v>23.85971428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805428571428571</c:v>
+                  <c:v>30.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>33.758428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.255571428571429</c:v>
+                  <c:v>35.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.262714285714281</c:v>
+                  <c:v>35.899428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.140714285714282</c:v>
+                  <c:v>36.910428571428582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.158285714285711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.87614285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12170,9 +12164,6 @@
                 <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12183,31 +12174,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4390766753246749</c:v>
+                  <c:v>2438.480623376623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.566278199134199</c:v>
+                  <c:v>2565.6683636363641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.673209731601732</c:v>
+                  <c:v>2672.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7232850216450211</c:v>
+                  <c:v>2722.648285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7726619047619061</c:v>
+                  <c:v>2772.017142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8721805714285717</c:v>
+                  <c:v>2871.5149783549791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9730775238095228</c:v>
+                  <c:v>2972.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0815017142857148</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2042233419913417</c:v>
+                  <c:v>3080.781523809525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12612,9 +12600,6 @@
                 <c:pt idx="7">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12625,31 +12610,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.895714285714291</c:v>
+                  <c:v>23.85971428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805428571428571</c:v>
+                  <c:v>30.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>33.758428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.255571428571429</c:v>
+                  <c:v>35.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.262714285714281</c:v>
+                  <c:v>35.899428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.140714285714282</c:v>
+                  <c:v>36.910428571428582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.158285714285711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.87614285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12936,9 +12918,6 @@
                 <c:pt idx="7">
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12949,31 +12928,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.895714285714291</c:v>
+                  <c:v>23.85971428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805428571428571</c:v>
+                  <c:v>30.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>33.758428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.255571428571429</c:v>
+                  <c:v>35.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.262714285714281</c:v>
+                  <c:v>35.899428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.140714285714282</c:v>
+                  <c:v>36.910428571428582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.158285714285711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.87614285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13304,7 +13280,7 @@
                   <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13399,9 +13375,6 @@
                 <c:pt idx="7">
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13412,31 +13385,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.895714285714291</c:v>
+                  <c:v>23.85971428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805428571428571</c:v>
+                  <c:v>30.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.994999999999997</c:v>
+                  <c:v>33.758428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.941571428571429</c:v>
+                  <c:v>34.503571428571433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.255571428571429</c:v>
+                  <c:v>35.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.262714285714281</c:v>
+                  <c:v>35.899428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.140714285714282</c:v>
+                  <c:v>36.910428571428582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.158285714285711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.145142857142858</c:v>
+                  <c:v>36.87614285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25045,7 +25015,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -25089,11 +25059,11 @@
         <f>B2/C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>23.895714285714291</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.4390766753246749</v>
+      <c r="E2">
+        <v>23.85971428571429</v>
+      </c>
+      <c r="F2">
+        <v>2438.480623376623</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -25104,18 +25074,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C11" si="0">(80+B3)/2</f>
+        <f t="shared" ref="C3:C9" si="0">(80+B3)/2</f>
         <v>45</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="1">B3/C3</f>
+        <f t="shared" ref="D3:D9" si="1">B3/C3</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E3" s="3">
-        <v>30.805428571428571</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.566278199134199</v>
+      <c r="E3">
+        <v>30.591000000000001</v>
+      </c>
+      <c r="F3">
+        <v>2565.6683636363641</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -25133,11 +25103,11 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E4" s="3">
-        <v>33.994999999999997</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.673209731601732</v>
+      <c r="E4">
+        <v>33.758428571428567</v>
+      </c>
+      <c r="F4">
+        <v>2672.58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -25155,11 +25125,11 @@
         <f t="shared" si="1"/>
         <v>0.47619047619047616</v>
       </c>
-      <c r="E5" s="3">
-        <v>34.941571428571429</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.7232850216450211</v>
+      <c r="E5">
+        <v>34.503571428571433</v>
+      </c>
+      <c r="F5">
+        <v>2722.648285714286</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -25177,11 +25147,11 @@
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="E6" s="3">
-        <v>35.255571428571429</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.7726619047619061</v>
+      <c r="E6">
+        <v>35.032142857142858</v>
+      </c>
+      <c r="F6">
+        <v>2772.017142857143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -25199,11 +25169,11 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E7" s="3">
-        <v>36.262714285714281</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.8721805714285717</v>
+      <c r="E7">
+        <v>35.899428571428572</v>
+      </c>
+      <c r="F7">
+        <v>2871.5149783549791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -25221,11 +25191,11 @@
         <f t="shared" si="1"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="E8" s="3">
-        <v>37.140714285714282</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.9730775238095228</v>
+      <c r="E8">
+        <v>36.910428571428582</v>
+      </c>
+      <c r="F8">
+        <v>2972.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25243,34 +25213,16 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="E9" s="3">
-        <v>37.158285714285711</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.0815017142857148</v>
+      <c r="E9">
+        <v>36.87614285714286</v>
+      </c>
+      <c r="F9">
+        <v>3080.781523809525</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="E10" s="3">
-        <v>37.145142857142858</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.2042233419913417</v>
-      </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -25310,7 +25262,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="C15">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>42.587857142857153</v>
